--- a/Instagram automation/username.xlsx
+++ b/Instagram automation/username.xlsx
@@ -27,15 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>username</t>
-  </si>
-  <si>
-    <t>souvik</t>
-  </si>
-  <si>
-    <t>codingcircle</t>
   </si>
 </sst>
 </file>
@@ -48,13 +42,25 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="var(--font-family-system) var(-"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="var(--jp-code-font-family)"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -519,138 +525,142 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,13 +980,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A7" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
@@ -987,14 +997,22 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Instagram automation/username.xlsx
+++ b/Instagram automation/username.xlsx
@@ -27,9 +27,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>username</t>
+  </si>
+  <si>
+    <t>factoryfinishlv</t>
+  </si>
+  <si>
+    <t>ronaldginn</t>
+  </si>
+  <si>
+    <t>seanngotthatheat</t>
+  </si>
+  <si>
+    <t>brendanfoery</t>
+  </si>
+  <si>
+    <t>michaeljmilton</t>
   </si>
 </sst>
 </file>
@@ -42,19 +57,13 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="var(--font-family-system) var(-"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
@@ -525,140 +534,139 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -980,13 +988,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A2:A7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
@@ -997,22 +1005,29 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
